--- a/data/trans_orig/IP2906_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP2906_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6B871DE-2F43-445B-9C70-11FAF0011F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F91439AC-E63B-4C1D-A435-BBA1C633451E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FA14E5A4-2CDA-4692-AF80-1254E7820B0B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9F379B4F-2770-4C3B-BD7B-AEE4A650D810}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
   <si>
     <t>Menores según si su lactancia durante los primeros meses de vida fue mixta en 2023 (Tasa respuesta: 95,68%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -74,28 +74,28 @@
     <t>19,04%</t>
   </si>
   <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>43,86%</t>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
   </si>
   <si>
     <t>56,39%</t>
   </si>
   <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
   </si>
   <si>
     <t>40,85%</t>
   </si>
   <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>56,93%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,313 +104,307 @@
     <t>80,96%</t>
   </si>
   <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
   </si>
   <si>
     <t>43,61%</t>
   </si>
   <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>65,28%</t>
   </si>
   <si>
     <t>59,15%</t>
   </si>
   <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>43,5%</t>
   </si>
   <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>52,13%</t>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
   </si>
   <si>
     <t>45,92%</t>
   </si>
   <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>53,54%</t>
   </si>
   <si>
     <t>44,64%</t>
   </si>
   <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
   </si>
   <si>
     <t>56,5%</t>
   </si>
   <si>
-    <t>47,87%</t>
-  </si>
-  <si>
-    <t>66,4%</t>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
   </si>
   <si>
     <t>54,08%</t>
   </si>
   <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
   </si>
   <si>
     <t>55,36%</t>
   </si>
   <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>49,2%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>40,92%</t>
   </si>
   <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
   </si>
   <si>
     <t>40,79%</t>
   </si>
   <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
   </si>
   <si>
     <t>40,87%</t>
   </si>
   <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>45,17%</t>
   </si>
   <si>
     <t>59,08%</t>
   </si>
   <si>
-    <t>53,27%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
   </si>
   <si>
     <t>59,21%</t>
   </si>
   <si>
-    <t>52,96%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
   </si>
   <si>
     <t>59,13%</t>
   </si>
   <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>63,58%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>54,83%</t>
+  </si>
+  <si>
+    <t>63,63%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>48,01%</t>
   </si>
   <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
   </si>
   <si>
     <t>48,41%</t>
   </si>
   <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
   </si>
   <si>
     <t>48,2%</t>
   </si>
   <si>
-    <t>43,25%</t>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
+    <t>51,99%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>65,19%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>44,02%</t>
+  </si>
+  <si>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>43,97%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
   </si>
   <si>
     <t>53,41%</t>
   </si>
   <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>56,75%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>51,6%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>40,6%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>41,53%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
+    <t>58,8%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -825,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76C79863-11A0-47F0-A34E-D8834DD344F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC3BFC5-669F-47B6-A7D5-10E3CF58FCB8}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1477,7 +1471,7 @@
         <v>114</v>
       </c>
       <c r="I14" s="7">
-        <v>80843</v>
+        <v>80844</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1528,7 +1522,7 @@
         <v>220</v>
       </c>
       <c r="I15" s="7">
-        <v>156704</v>
+        <v>156705</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1575,7 +1569,7 @@
         <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="H16" s="7">
         <v>94</v>
@@ -1584,13 +1578,13 @@
         <v>67579</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>197</v>
@@ -1599,13 +1593,13 @@
         <v>145583</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1620,13 +1614,13 @@
         <v>91341</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>136</v>
@@ -1635,13 +1629,13 @@
         <v>96682</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>262</v>
@@ -1650,13 +1644,13 @@
         <v>188023</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1724,13 +1718,13 @@
         <v>309082</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>401</v>
@@ -1739,13 +1733,13 @@
         <v>274107</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>814</v>
@@ -1754,13 +1748,13 @@
         <v>583189</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1775,13 +1769,13 @@
         <v>394672</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>504</v>
@@ -1790,13 +1784,13 @@
         <v>348528</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>1023</v>
@@ -1805,13 +1799,13 @@
         <v>743200</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1867,7 +1861,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP2906_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP2906_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F91439AC-E63B-4C1D-A435-BBA1C633451E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{78BFFEF6-9326-4D97-B91D-07E8059C6FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9F379B4F-2770-4C3B-BD7B-AEE4A650D810}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{9540ABC8-1736-43B2-A846-642634F39E10}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
   <si>
     <t>Menores según si su lactancia durante los primeros meses de vida fue mixta en 2023 (Tasa respuesta: 95,68%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,346 +65,289 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>56,93%</t>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>47,0%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>65,28%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>63,92%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>45,92%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>53,54%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>54,08%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>55,36%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>46,77%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>45,17%</t>
-  </si>
-  <si>
-    <t>59,08%</t>
-  </si>
-  <si>
-    <t>53,23%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>65,39%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>54,83%</t>
-  </si>
-  <si>
-    <t>63,63%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>51,99%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>59,64%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>56,95%</t>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>54,35%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>59,32%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>55,03%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>48,22%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>43,64%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>65,19%</t>
-  </si>
-  <si>
-    <t>56,36%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>43,97%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
-  </si>
-  <si>
-    <t>56,08%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>56,03%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>39,43%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>43,37%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>60,57%</t>
+  </si>
+  <si>
+    <t>56,63%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>42,7%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -819,8 +762,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC3BFC5-669F-47B6-A7D5-10E3CF58FCB8}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87F8605B-AD2D-4185-BB42-64E7CF76C14F}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -937,10 +880,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="D4" s="7">
-        <v>2169</v>
+        <v>53756</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -952,10 +895,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="I4" s="7">
-        <v>9022</v>
+        <v>52209</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -967,10 +910,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="N4" s="7">
-        <v>11191</v>
+        <v>105965</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -988,10 +931,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="D5" s="7">
-        <v>9228</v>
+        <v>59302</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1003,10 +946,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="I5" s="7">
-        <v>6977</v>
+        <v>84142</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1018,10 +961,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>25</v>
+        <v>188</v>
       </c>
       <c r="N5" s="7">
-        <v>16204</v>
+        <v>143444</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1039,10 +982,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>17</v>
+        <v>188</v>
       </c>
       <c r="D6" s="7">
-        <v>11397</v>
+        <v>113058</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1054,10 +997,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="I6" s="7">
-        <v>15999</v>
+        <v>136351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1069,10 +1012,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>43</v>
+        <v>351</v>
       </c>
       <c r="N6" s="7">
-        <v>27395</v>
+        <v>249409</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1092,10 +1035,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="D7" s="7">
-        <v>48722</v>
+        <v>72719</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1107,10 +1050,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>77</v>
+        <v>132</v>
       </c>
       <c r="I7" s="7">
-        <v>45746</v>
+        <v>100241</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1122,10 +1065,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>145</v>
+        <v>242</v>
       </c>
       <c r="N7" s="7">
-        <v>94468</v>
+        <v>172960</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1143,10 +1086,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="D8" s="7">
-        <v>63284</v>
+        <v>111566</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1158,10 +1101,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="I8" s="7">
-        <v>53867</v>
+        <v>146165</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1173,10 +1116,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>163</v>
+        <v>347</v>
       </c>
       <c r="N8" s="7">
-        <v>117151</v>
+        <v>257731</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1194,10 +1137,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>146</v>
+        <v>267</v>
       </c>
       <c r="D9" s="7">
-        <v>112006</v>
+        <v>184285</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1209,10 +1152,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>162</v>
+        <v>322</v>
       </c>
       <c r="I9" s="7">
-        <v>99613</v>
+        <v>246406</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1224,10 +1167,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>308</v>
+        <v>589</v>
       </c>
       <c r="N9" s="7">
-        <v>211619</v>
+        <v>430691</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1247,10 +1190,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="D10" s="7">
-        <v>98918</v>
+        <v>75564</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1262,10 +1205,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I10" s="7">
-        <v>75899</v>
+        <v>83871</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1277,10 +1220,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="N10" s="7">
-        <v>174818</v>
+        <v>159434</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1298,10 +1241,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>190</v>
+        <v>114</v>
       </c>
       <c r="D11" s="7">
-        <v>142808</v>
+        <v>84484</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1313,34 +1256,34 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="I11" s="7">
-        <v>110158</v>
+        <v>97285</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>226</v>
+      </c>
+      <c r="N11" s="7">
+        <v>181770</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="7">
-        <v>347</v>
-      </c>
-      <c r="N11" s="7">
-        <v>252966</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1349,10 +1292,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>322</v>
+        <v>220</v>
       </c>
       <c r="D12" s="7">
-        <v>241726</v>
+        <v>160048</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1364,10 +1307,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>267</v>
+        <v>218</v>
       </c>
       <c r="I12" s="7">
-        <v>186057</v>
+        <v>181156</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1379,10 +1322,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>589</v>
+        <v>438</v>
       </c>
       <c r="N12" s="7">
-        <v>427784</v>
+        <v>341204</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1396,55 +1339,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D13" s="7">
-        <v>81268</v>
+        <v>66283</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>103</v>
+      </c>
+      <c r="I13" s="7">
+        <v>79220</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7">
-        <v>106</v>
-      </c>
-      <c r="I13" s="7">
-        <v>75861</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>197</v>
+      </c>
+      <c r="N13" s="7">
+        <v>145503</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M13" s="7">
-        <v>212</v>
-      </c>
-      <c r="N13" s="7">
-        <v>157129</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1453,49 +1396,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="D14" s="7">
-        <v>88012</v>
+        <v>94101</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>126</v>
+      </c>
+      <c r="I14" s="7">
+        <v>95912</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="7">
-        <v>114</v>
-      </c>
-      <c r="I14" s="7">
-        <v>80844</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>262</v>
+      </c>
+      <c r="N14" s="7">
+        <v>190013</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="7">
-        <v>226</v>
-      </c>
-      <c r="N14" s="7">
-        <v>168856</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1504,10 +1447,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="D15" s="7">
-        <v>169280</v>
+        <v>160384</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1519,10 +1462,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="I15" s="7">
-        <v>156705</v>
+        <v>175132</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1534,10 +1477,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>438</v>
+        <v>459</v>
       </c>
       <c r="N15" s="7">
-        <v>325985</v>
+        <v>335516</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1551,55 +1494,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>103</v>
+        <v>401</v>
       </c>
       <c r="D16" s="7">
-        <v>78004</v>
+        <v>268322</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="7">
+        <v>413</v>
+      </c>
+      <c r="I16" s="7">
+        <v>315541</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="7">
+      <c r="L16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M16" s="7">
+        <v>814</v>
+      </c>
+      <c r="N16" s="7">
+        <v>583863</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="I16" s="7">
-        <v>67579</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="M16" s="7">
-        <v>197</v>
-      </c>
-      <c r="N16" s="7">
-        <v>145583</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,49 +1551,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>126</v>
+        <v>504</v>
       </c>
       <c r="D17" s="7">
-        <v>91341</v>
+        <v>349453</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>519</v>
+      </c>
+      <c r="I17" s="7">
+        <v>423503</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="H17" s="7">
-        <v>136</v>
-      </c>
-      <c r="I17" s="7">
-        <v>96682</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>1023</v>
+      </c>
+      <c r="N17" s="7">
+        <v>772957</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="M17" s="7">
-        <v>262</v>
-      </c>
-      <c r="N17" s="7">
-        <v>188023</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,10 +1602,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>229</v>
+        <v>905</v>
       </c>
       <c r="D18" s="7">
-        <v>169345</v>
+        <v>617775</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1674,10 +1617,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>230</v>
+        <v>932</v>
       </c>
       <c r="I18" s="7">
-        <v>164261</v>
+        <v>739044</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1689,10 +1632,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>459</v>
+        <v>1837</v>
       </c>
       <c r="N18" s="7">
-        <v>333606</v>
+        <v>1356820</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1705,171 +1648,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>413</v>
-      </c>
-      <c r="D19" s="7">
-        <v>309082</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="7">
-        <v>401</v>
-      </c>
-      <c r="I19" s="7">
-        <v>274107</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" s="7">
-        <v>814</v>
-      </c>
-      <c r="N19" s="7">
-        <v>583189</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>519</v>
-      </c>
-      <c r="D20" s="7">
-        <v>394672</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="7">
-        <v>504</v>
-      </c>
-      <c r="I20" s="7">
-        <v>348528</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1023</v>
-      </c>
-      <c r="N20" s="7">
-        <v>743200</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>932</v>
-      </c>
-      <c r="D21" s="7">
-        <v>703754</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>905</v>
-      </c>
-      <c r="I21" s="7">
-        <v>622635</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1837</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1326389</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
